--- a/data/data_template_test_insert.xlsx
+++ b/data/data_template_test_insert.xlsx
@@ -43,7 +43,7 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -434,7 +434,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="286">
   <si>
     <t xml:space="preserve">Grupa objawów</t>
   </si>
@@ -466,6 +466,9 @@
     <t xml:space="preserve">objawy wykluczające</t>
   </si>
   <si>
+    <t xml:space="preserve">ex</t>
+  </si>
+  <si>
     <t xml:space="preserve">choroby współistniejące (0, 1 lub wiele)</t>
   </si>
   <si>
@@ -508,6 +511,9 @@
     <t xml:space="preserve">poziom CK &gt;1000</t>
   </si>
   <si>
+    <t xml:space="preserve">brak możliwości gwizdania</t>
+  </si>
+  <si>
     <t xml:space="preserve">RZS</t>
   </si>
   <si>
@@ -779,9 +785,6 @@
   </si>
   <si>
     <t xml:space="preserve">zapalenie wielomięśniowe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brak możliwości gwizdania</t>
   </si>
   <si>
     <t xml:space="preserve">choroba neuronu ruchowego (MND) 3</t>
@@ -1501,13 +1504,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.015625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.01953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21"/>
@@ -1516,13 +1519,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="43.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="1" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="27.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="36.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="30.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="9" style="1" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="27.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="36.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="30.09"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1565,405 +1568,451 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="N2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>37</v>
+        <v>16</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>47</v>
+        <v>29</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>57</v>
+        <v>42</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M6" s="0" t="s">
         <v>67</v>
       </c>
+      <c r="M6" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="N6" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>73</v>
+        <v>62</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>79</v>
+        <v>71</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>86</v>
+        <v>78</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="58.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>92</v>
+        <v>85</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>98</v>
+        <v>91</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>100</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="99.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M12" s="0" t="s">
-        <v>103</v>
+        <v>97</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="N13" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N13" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
       <c r="B14" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M14" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
       <c r="B15" s="1" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M15" s="0" t="s">
         <v>117</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="N15" s="0" t="s">
         <v>118</v>
       </c>
+      <c r="O15" s="0" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M16" s="0" t="s">
-        <v>119</v>
-      </c>
+      <c r="K16" s="0"/>
       <c r="N16" s="0" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M17" s="0" t="s">
+      <c r="O16" s="0" t="s">
         <v>121</v>
       </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N17" s="0" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M18" s="0" t="s">
+      <c r="O17" s="0" t="s">
         <v>123</v>
       </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N18" s="0" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M19" s="0" t="s">
+      <c r="O18" s="0" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M20" s="0" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N19" s="0" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M21" s="0" t="s">
-        <v>45</v>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N20" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N21" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1993,10 +2042,10 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="K2 F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.015625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.01953125" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="217" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -2030,69 +2079,69 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="155" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="186" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -2106,15 +2155,15 @@
     </row>
     <row r="4" customFormat="false" ht="248" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -2129,12 +2178,12 @@
     <row r="5" customFormat="false" ht="155" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -2170,10 +2219,10 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="1" sqref="K2 I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.015625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.01953125" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="217" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -2207,100 +2256,100 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="155" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="186" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="248" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -2308,23 +2357,23 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="155" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -2332,25 +2381,25 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="32.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -2358,23 +2407,23 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -2384,14 +2433,14 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="77.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2404,18 +2453,18 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M9" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="139.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M10" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2443,10 +2492,10 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="1" sqref="K2 I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.015625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.01953125" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="217" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -2480,60 +2529,60 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="155" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2542,23 +2591,23 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N3" s="1"/>
     </row>
@@ -2568,7 +2617,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -2576,23 +2625,23 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="77.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -2600,11 +2649,11 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N5" s="1"/>
     </row>
@@ -2614,7 +2663,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -2622,23 +2671,23 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -2646,18 +2695,18 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="108.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2668,7 +2717,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -2676,10 +2725,10 @@
     </row>
     <row r="9" customFormat="false" ht="155" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2690,7 +2739,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -2699,7 +2748,7 @@
     <row r="10" customFormat="false" ht="186" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2710,7 +2759,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -2718,7 +2767,7 @@
     </row>
     <row r="11" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2730,7 +2779,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -2739,7 +2788,7 @@
     <row r="12" customFormat="false" ht="155" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2750,7 +2799,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -2758,10 +2807,10 @@
     </row>
     <row r="13" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2779,7 +2828,7 @@
     <row r="14" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
       <c r="B14" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2797,7 +2846,7 @@
     <row r="15" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
       <c r="B15" s="1" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2839,10 +2888,10 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="1" sqref="K2 I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.015625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.01953125" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="217" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
@@ -2876,56 +2925,56 @@
         <v>9</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="155" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2934,35 +2983,35 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="248" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -2970,11 +3019,11 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N4" s="1"/>
     </row>
@@ -2984,7 +3033,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -2992,23 +3041,23 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="124" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -3016,23 +3065,23 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -3040,11 +3089,11 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N7" s="1"/>
     </row>
@@ -3060,11 +3109,11 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N8" s="1"/>
     </row>
@@ -3080,11 +3129,11 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N9" s="1"/>
     </row>
@@ -3100,11 +3149,11 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N10" s="1"/>
     </row>
@@ -3120,11 +3169,11 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N11" s="1"/>
     </row>
@@ -3140,11 +3189,11 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N12" s="1"/>
     </row>
@@ -3162,7 +3211,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N13" s="1"/>
     </row>
@@ -3180,7 +3229,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N14" s="1"/>
     </row>
@@ -3198,7 +3247,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N15" s="1"/>
     </row>
@@ -3216,7 +3265,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N16" s="1"/>
     </row>
@@ -3243,10 +3292,10 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="1" sqref="K2 I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.015625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.01953125" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="217" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -3280,85 +3329,85 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="108.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N3" s="1"/>
     </row>
@@ -3368,7 +3417,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -3376,18 +3425,18 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="93" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -3398,20 +3447,20 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="155" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -3422,18 +3471,18 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="186" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -3444,20 +3493,20 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="248" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3468,18 +3517,18 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="155" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3490,11 +3539,11 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N9" s="1"/>
     </row>
@@ -3523,10 +3572,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="1" sqref="K2 A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.015625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.01953125" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.511805555555555"/>
@@ -3546,10 +3595,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="K2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.015625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.01953125" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.511805555555555"/>
@@ -3569,10 +3618,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="K2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.015625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.01953125" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.511805555555555"/>
@@ -3592,10 +3641,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R29" activeCellId="0" sqref="R29"/>
+      <selection pane="topLeft" activeCell="R29" activeCellId="1" sqref="K2 R29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.015625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.01953125" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.511805555555555"/>
@@ -3615,10 +3664,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P34" activeCellId="0" sqref="P34"/>
+      <selection pane="topLeft" activeCell="P34" activeCellId="1" sqref="K2 P34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.015625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.01953125" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.511805555555555"/>
@@ -3638,10 +3687,10 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="1" sqref="K2 I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.01953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.33"/>
@@ -3660,19 +3709,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
@@ -3681,143 +3730,143 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="77.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="62" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3825,10 +3874,10 @@
     </row>
     <row r="11" customFormat="false" ht="93" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3861,7 +3910,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="K2 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.859375" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3874,19 +3923,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
@@ -3895,186 +3944,186 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E8" s="6"/>
       <c r="M8" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="62" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="77.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M13" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4103,29 +4152,29 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="K2 G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.015625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.01953125" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="170.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
@@ -4134,79 +4183,79 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="155" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="77.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -4214,18 +4263,18 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="108.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4236,20 +4285,20 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="108.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -4260,18 +4309,18 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4282,18 +4331,18 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="77.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4304,18 +4353,18 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="124" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4326,20 +4375,20 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="155" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4352,14 +4401,14 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="186" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4372,16 +4421,16 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="248" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -4399,7 +4448,7 @@
     <row r="12" customFormat="false" ht="155" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -4440,7 +4489,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="1" sqref="K2 I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4480,69 +4529,69 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="248" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="108.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -4568,10 +4617,10 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="1" sqref="K2 I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.015625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.01953125" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="217" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -4605,97 +4654,97 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="155" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="186" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="248" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -4703,23 +4752,23 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="155" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -4737,7 +4786,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -4773,10 +4822,10 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="1" sqref="K2 I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.015625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.01953125" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="217" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
@@ -4810,95 +4859,95 @@
         <v>9</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="155" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="186" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -4908,19 +4957,19 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="155" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -4930,7 +4979,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N5" s="1"/>
     </row>
@@ -4948,7 +4997,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N6" s="1"/>
     </row>
@@ -4966,7 +5015,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N7" s="1"/>
     </row>
@@ -4993,10 +5042,10 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="1" sqref="K2 I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.015625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.01953125" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="217" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -5030,101 +5079,101 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="155" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="186" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="248" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -5134,19 +5183,19 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="155" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -5156,7 +5205,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N5" s="1"/>
     </row>
@@ -5166,7 +5215,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -5176,7 +5225,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N6" s="1"/>
     </row>
@@ -5194,7 +5243,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N7" s="1"/>
     </row>
@@ -5222,10 +5271,10 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="1" sqref="K2 I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.015625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.01953125" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="217" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
@@ -5259,66 +5308,66 @@
         <v>9</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="155" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="186" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5326,14 +5375,14 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -5341,10 +5390,10 @@
     </row>
     <row r="4" customFormat="false" ht="248" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -5357,14 +5406,14 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="155" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -5377,28 +5426,28 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="93" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M6" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M7" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M8" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M9" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
